--- a/resources/RegistrationData.xlsx
+++ b/resources/RegistrationData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="2472"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -34,7 +35,19 @@
     <t>A@21word</t>
   </si>
   <si>
-    <t>a@a.com</t>
+    <t>veereshradder</t>
+  </si>
+  <si>
+    <t>ramesh</t>
+  </si>
+  <si>
+    <t>abc@xyz.com</t>
+  </si>
+  <si>
+    <t>abc1@xyz.com</t>
+  </si>
+  <si>
+    <t>RameshA</t>
   </si>
 </sst>
 </file>
@@ -387,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,21 +427,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/RegistrationData.xlsx
+++ b/resources/RegistrationData.xlsx
@@ -54,18 +54,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,16 +80,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,7 +392,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,10 +418,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -443,10 +432,10 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -454,12 +443,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>